--- a/画像/1024/特徴点の検出.xlsx
+++ b/画像/1024/特徴点の検出.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研究室\日誌\画像\1024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECFF1738-94E4-4F33-BB95-F06027BB4A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2401CD84-26D7-443E-95C3-3CBFFAF23B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{F390434C-1379-48A7-8188-CAA40E327FEB}"/>
   </bookViews>
@@ -1363,16 +1363,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>197306</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>193221</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>47628</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>138792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>11341</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>179164</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1700,7 +1700,7 @@
   <dimension ref="D3:AG32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+      <selection activeCell="BK30" sqref="BK30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/画像/1024/特徴点の検出.xlsx
+++ b/画像/1024/特徴点の検出.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研究室\日誌\画像\1024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2401CD84-26D7-443E-95C3-3CBFFAF23B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C25BC9-902D-4669-A324-865B592C61F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{F390434C-1379-48A7-8188-CAA40E327FEB}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F390434C-1379-48A7-8188-CAA40E327FEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="edge" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +32,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>フィルタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52,7 +62,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -65,8 +75,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -219,13 +235,245 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,6 +541,99 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,6 +1144,1008 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>画素の位置と画素値の関係</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>edge!$D$19:$AG$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5316-4A97-8861-E2BD04591754}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1932587679"/>
+        <c:axId val="1756263647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1932587679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>位置</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756263647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1756263647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1932587679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>画素の位置と画素値の</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>階微分の関係</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>edge!$AN$19:$BQ$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0122-4C0D-BE10-9BDD460F8122}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1932587679"/>
+        <c:axId val="1756263647"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1932587679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>位置</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756263647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1756263647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                    <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>画素値</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1932587679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -843,7 +2186,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1400,6 +3855,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34022</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>187034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>54430</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>35993</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C59BB3-7A17-4071-87FC-67F41530F467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>228227</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>195322</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2CF453-41A2-4F5F-A22D-3B080927A8AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1699,8 +4235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EB8B6C-CC15-4D24-BA2F-28BAFCC90460}">
   <dimension ref="D3:AG32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BK30" sqref="BK30"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4474,4 +7010,6399 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF21DD6-1DE6-44EB-B4A9-17FEFAFFFCC3}">
+  <dimension ref="D3:BQ34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CI26" sqref="CI26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <f>SUM($G$3*D5+$H$3*E5+$I$3*F5)</f>
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" ref="AO5:BB5" si="0">SUM($G$3*E5+$H$3*F5+$I$3*G5)</f>
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <f>SUM($G$3*S5+$H$3*T5+$I$3*U5)</f>
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <f t="shared" ref="BD5" si="1">SUM($G$3*T5+$H$3*U5+$I$3*V5)</f>
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <f t="shared" ref="BE5" si="2">SUM($G$3*U5+$H$3*V5+$I$3*W5)</f>
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <f t="shared" ref="BF5" si="3">SUM($G$3*V5+$H$3*W5+$I$3*X5)</f>
+        <v>0</v>
+      </c>
+      <c r="BG5" s="3">
+        <f t="shared" ref="BG5" si="4">SUM($G$3*W5+$H$3*X5+$I$3*Y5)</f>
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <f t="shared" ref="BH5" si="5">SUM($G$3*X5+$H$3*Y5+$I$3*Z5)</f>
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <f t="shared" ref="BI5" si="6">SUM($G$3*Y5+$H$3*Z5+$I$3*AA5)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <f t="shared" ref="BJ5" si="7">SUM($G$3*Z5+$H$3*AA5+$I$3*AB5)</f>
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <f t="shared" ref="BK5" si="8">SUM($G$3*AA5+$H$3*AB5+$I$3*AC5)</f>
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <f t="shared" ref="BL5" si="9">SUM($G$3*AB5+$H$3*AC5+$I$3*AD5)</f>
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <f t="shared" ref="BM5" si="10">SUM($G$3*AC5+$H$3*AD5+$I$3*AE5)</f>
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <f t="shared" ref="BN5" si="11">SUM($G$3*AD5+$H$3*AE5+$I$3*AF5)</f>
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <f t="shared" ref="BO5" si="12">SUM($G$3*AE5+$H$3*AF5+$I$3*AG5)</f>
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <f t="shared" ref="BP5:BQ5" si="13">SUM($G$3*AF5+$H$3*AG5+$I$3*AH5)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" ref="AN6:AN34" si="14">SUM($G$3*D6+$H$3*E6+$I$3*F6)</f>
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" ref="AO6:AO34" si="15">SUM($G$3*E6+$H$3*F6+$I$3*G6)</f>
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" ref="AP6:AP34" si="16">SUM($G$3*F6+$H$3*G6+$I$3*H6)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" ref="AQ6:AQ34" si="17">SUM($G$3*G6+$H$3*H6+$I$3*I6)</f>
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" ref="AR6:AR34" si="18">SUM($G$3*H6+$H$3*I6+$I$3*J6)</f>
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" ref="AS6:AS34" si="19">SUM($G$3*I6+$H$3*J6+$I$3*K6)</f>
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" ref="AT6:AT34" si="20">SUM($G$3*J6+$H$3*K6+$I$3*L6)</f>
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" ref="AU6:AU34" si="21">SUM($G$3*K6+$H$3*L6+$I$3*M6)</f>
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" ref="AV6:AV34" si="22">SUM($G$3*L6+$H$3*M6+$I$3*N6)</f>
+        <v>0</v>
+      </c>
+      <c r="AW6" s="3">
+        <f t="shared" ref="AW6:AW34" si="23">SUM($G$3*M6+$H$3*N6+$I$3*O6)</f>
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" ref="AX6:AX34" si="24">SUM($G$3*N6+$H$3*O6+$I$3*P6)</f>
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" ref="AY6:AY34" si="25">SUM($G$3*O6+$H$3*P6+$I$3*Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" ref="AZ6:AZ34" si="26">SUM($G$3*P6+$H$3*Q6+$I$3*R6)</f>
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" ref="BA6:BA34" si="27">SUM($G$3*Q6+$H$3*R6+$I$3*S6)</f>
+        <v>0</v>
+      </c>
+      <c r="BB6" s="6">
+        <f t="shared" ref="BB6:BB34" si="28">SUM($G$3*R6+$H$3*S6+$I$3*T6)</f>
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" ref="BC6:BC34" si="29">SUM($G$3*S6+$H$3*T6+$I$3*U6)</f>
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" ref="BD6:BD34" si="30">SUM($G$3*T6+$H$3*U6+$I$3*V6)</f>
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" ref="BE6:BE34" si="31">SUM($G$3*U6+$H$3*V6+$I$3*W6)</f>
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" ref="BF6:BF34" si="32">SUM($G$3*V6+$H$3*W6+$I$3*X6)</f>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="3">
+        <f t="shared" ref="BG6:BG34" si="33">SUM($G$3*W6+$H$3*X6+$I$3*Y6)</f>
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <f t="shared" ref="BH6:BH34" si="34">SUM($G$3*X6+$H$3*Y6+$I$3*Z6)</f>
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <f t="shared" ref="BI6:BI34" si="35">SUM($G$3*Y6+$H$3*Z6+$I$3*AA6)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <f t="shared" ref="BJ6:BJ34" si="36">SUM($G$3*Z6+$H$3*AA6+$I$3*AB6)</f>
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <f t="shared" ref="BK6:BK34" si="37">SUM($G$3*AA6+$H$3*AB6+$I$3*AC6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <f t="shared" ref="BL6:BL34" si="38">SUM($G$3*AB6+$H$3*AC6+$I$3*AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <f t="shared" ref="BM6:BM34" si="39">SUM($G$3*AC6+$H$3*AD6+$I$3*AE6)</f>
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <f t="shared" ref="BN6:BN34" si="40">SUM($G$3*AD6+$H$3*AE6+$I$3*AF6)</f>
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <f t="shared" ref="BO6:BO34" si="41">SUM($G$3*AE6+$H$3*AF6+$I$3*AG6)</f>
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <f t="shared" ref="BP6:BP34" si="42">SUM($G$3*AF6+$H$3*AG6+$I$3*AH6)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <f t="shared" ref="BQ6:BQ34" si="43">SUM($G$3*AG6+$H$3*AH6+$I$3*AI6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW7" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB7" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB8" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG8" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB9" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG9" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW10" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB10" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG10" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:69" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW11" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB11" s="29">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC11" s="30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG11" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:69" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <v>1</v>
+      </c>
+      <c r="S12" s="7">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW12" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="32">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="BA12" s="33">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="BB12" s="27">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="BC12" s="49">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="BD12" s="30">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE12" s="30">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG12" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:69" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>1</v>
+      </c>
+      <c r="R13" s="10">
+        <v>1</v>
+      </c>
+      <c r="S13" s="7">
+        <v>1</v>
+      </c>
+      <c r="T13" s="7">
+        <v>1</v>
+      </c>
+      <c r="U13" s="7">
+        <v>1</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW13" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="34">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AY13" s="33">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB13" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD13" s="23">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="BE13" s="31">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="BF13" s="30">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG13" s="48">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:69" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1</v>
+      </c>
+      <c r="O14" s="13">
+        <v>1</v>
+      </c>
+      <c r="P14" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>1</v>
+      </c>
+      <c r="R14" s="14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="13">
+        <v>1</v>
+      </c>
+      <c r="T14" s="13">
+        <v>1</v>
+      </c>
+      <c r="U14" s="13">
+        <v>1</v>
+      </c>
+      <c r="V14" s="13">
+        <v>1</v>
+      </c>
+      <c r="W14" s="15">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="24">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AW14" s="33">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AX14" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY14" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA14" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB14" s="28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC14" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD14" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE14" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF14" s="24">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="BG14" s="35">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="BH14" s="30">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI14" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK14" s="1">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL14" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM14" s="1">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN14" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO14" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP14" s="1">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1</v>
+      </c>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
+      <c r="R15" s="10">
+        <v>1</v>
+      </c>
+      <c r="S15" s="7">
+        <v>1</v>
+      </c>
+      <c r="T15" s="7">
+        <v>1</v>
+      </c>
+      <c r="U15" s="7">
+        <v>1</v>
+      </c>
+      <c r="V15" s="7">
+        <v>1</v>
+      </c>
+      <c r="W15" s="8">
+        <v>1</v>
+      </c>
+      <c r="X15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="23">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AV15" s="36">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AW15" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB15" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG15" s="26">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="BH15" s="47">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="BI15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:69" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>1</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>1</v>
+      </c>
+      <c r="R16" s="10">
+        <v>1</v>
+      </c>
+      <c r="S16" s="7">
+        <v>1</v>
+      </c>
+      <c r="T16" s="7">
+        <v>1</v>
+      </c>
+      <c r="U16" s="7">
+        <v>1</v>
+      </c>
+      <c r="V16" s="7">
+        <v>1</v>
+      </c>
+      <c r="W16" s="8">
+        <v>1</v>
+      </c>
+      <c r="X16" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="23">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AV16" s="33">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AW16" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB16" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG16" s="26">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="BH16" s="47">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="BI16" s="30">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
+        <v>1</v>
+      </c>
+      <c r="N17" s="9">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>1</v>
+      </c>
+      <c r="R17" s="10">
+        <v>1</v>
+      </c>
+      <c r="S17" s="7">
+        <v>1</v>
+      </c>
+      <c r="T17" s="7">
+        <v>1</v>
+      </c>
+      <c r="U17" s="7">
+        <v>1</v>
+      </c>
+      <c r="V17" s="7">
+        <v>1</v>
+      </c>
+      <c r="W17" s="8">
+        <v>1</v>
+      </c>
+      <c r="X17" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="23">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AU17" s="31">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB17" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH17" s="23">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="BI17" s="31">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="BJ17">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:69" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8">
+        <v>1</v>
+      </c>
+      <c r="N18" s="9">
+        <v>1</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1</v>
+      </c>
+      <c r="P18" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>1</v>
+      </c>
+      <c r="R18" s="10">
+        <v>1</v>
+      </c>
+      <c r="S18" s="7">
+        <v>1</v>
+      </c>
+      <c r="T18" s="7">
+        <v>1</v>
+      </c>
+      <c r="U18" s="7">
+        <v>1</v>
+      </c>
+      <c r="V18" s="7">
+        <v>1</v>
+      </c>
+      <c r="W18" s="8">
+        <v>1</v>
+      </c>
+      <c r="X18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="23">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AU18" s="31">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB18" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG18" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH18" s="23">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="BI18" s="31">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="BJ18" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:69" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
+      <c r="L19" s="18">
+        <v>1</v>
+      </c>
+      <c r="M19" s="19">
+        <v>1</v>
+      </c>
+      <c r="N19" s="20">
+        <v>1</v>
+      </c>
+      <c r="O19" s="18">
+        <v>1</v>
+      </c>
+      <c r="P19" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>1</v>
+      </c>
+      <c r="R19" s="21">
+        <v>1</v>
+      </c>
+      <c r="S19" s="18">
+        <v>1</v>
+      </c>
+      <c r="T19" s="18">
+        <v>1</v>
+      </c>
+      <c r="U19" s="18">
+        <v>1</v>
+      </c>
+      <c r="V19" s="18">
+        <v>1</v>
+      </c>
+      <c r="W19" s="19">
+        <v>1</v>
+      </c>
+      <c r="X19" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR19" s="17">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="50">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AT19" s="51">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AU19" s="17">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW19" s="52">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX19" s="17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA19" s="17">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB19" s="53">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC19" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD19" s="17">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="17">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF19" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG19" s="52">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH19" s="17">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI19" s="50">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="BJ19" s="51">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="BK19" s="17">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL19" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM19" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN19" s="17">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO19" s="17">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP19" s="17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="22">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:69" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8">
+        <v>1</v>
+      </c>
+      <c r="N20" s="9">
+        <v>1</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1</v>
+      </c>
+      <c r="P20" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>1</v>
+      </c>
+      <c r="R20" s="10">
+        <v>1</v>
+      </c>
+      <c r="S20" s="7">
+        <v>1</v>
+      </c>
+      <c r="T20" s="7">
+        <v>1</v>
+      </c>
+      <c r="U20" s="7">
+        <v>1</v>
+      </c>
+      <c r="V20" s="7">
+        <v>1</v>
+      </c>
+      <c r="W20" s="8">
+        <v>1</v>
+      </c>
+      <c r="X20" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS20" s="23">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AT20" s="31">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AU20" s="37">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW20" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB20" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG20" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI20" s="23">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="BJ20" s="33">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="BK20">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1</v>
+      </c>
+      <c r="N21" s="9">
+        <v>1</v>
+      </c>
+      <c r="O21" s="7">
+        <v>1</v>
+      </c>
+      <c r="P21" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>1</v>
+      </c>
+      <c r="R21" s="10">
+        <v>1</v>
+      </c>
+      <c r="S21" s="7">
+        <v>1</v>
+      </c>
+      <c r="T21" s="7">
+        <v>1</v>
+      </c>
+      <c r="U21" s="7">
+        <v>1</v>
+      </c>
+      <c r="V21" s="7">
+        <v>1</v>
+      </c>
+      <c r="W21" s="8">
+        <v>1</v>
+      </c>
+      <c r="X21" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="23">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AU21" s="38">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AV21">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW21" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB21" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG21" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH21" s="23">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="BI21" s="31">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="BJ21">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:69" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
+        <v>1</v>
+      </c>
+      <c r="N22" s="9">
+        <v>1</v>
+      </c>
+      <c r="O22" s="7">
+        <v>1</v>
+      </c>
+      <c r="P22" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>1</v>
+      </c>
+      <c r="R22" s="10">
+        <v>1</v>
+      </c>
+      <c r="S22" s="7">
+        <v>1</v>
+      </c>
+      <c r="T22" s="7">
+        <v>1</v>
+      </c>
+      <c r="U22" s="7">
+        <v>1</v>
+      </c>
+      <c r="V22" s="7">
+        <v>1</v>
+      </c>
+      <c r="W22" s="8">
+        <v>1</v>
+      </c>
+      <c r="X22" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="23">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AU22" s="31">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AV22" s="37">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW22" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB22" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG22" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH22" s="23">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="BI22" s="33">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="BJ22">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
+        <v>1</v>
+      </c>
+      <c r="N23" s="9">
+        <v>1</v>
+      </c>
+      <c r="O23" s="7">
+        <v>1</v>
+      </c>
+      <c r="P23" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>1</v>
+      </c>
+      <c r="R23" s="10">
+        <v>1</v>
+      </c>
+      <c r="S23" s="7">
+        <v>1</v>
+      </c>
+      <c r="T23" s="7">
+        <v>1</v>
+      </c>
+      <c r="U23" s="7">
+        <v>1</v>
+      </c>
+      <c r="V23" s="7">
+        <v>1</v>
+      </c>
+      <c r="W23" s="8">
+        <v>1</v>
+      </c>
+      <c r="X23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU23" s="23">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AV23" s="38">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AW23" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB23" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG23" s="26">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="BH23" s="47">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="BI23">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:69" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>1</v>
+      </c>
+      <c r="N24" s="12">
+        <v>1</v>
+      </c>
+      <c r="O24" s="13">
+        <v>1</v>
+      </c>
+      <c r="P24" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>1</v>
+      </c>
+      <c r="R24" s="14">
+        <v>1</v>
+      </c>
+      <c r="S24" s="13">
+        <v>1</v>
+      </c>
+      <c r="T24" s="13">
+        <v>1</v>
+      </c>
+      <c r="U24" s="13">
+        <v>1</v>
+      </c>
+      <c r="V24" s="13">
+        <v>1</v>
+      </c>
+      <c r="W24" s="15">
+        <v>1</v>
+      </c>
+      <c r="X24" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR24" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS24" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT24" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU24" s="24">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AV24" s="35">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AW24" s="39">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX24" s="1">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY24" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA24" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB24" s="28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC24" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD24" s="1">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF24" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG24" s="25">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="BH24" s="46">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="BI24" s="1">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK24" s="1">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL24" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM24" s="1">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN24" s="1">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO24" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP24" s="1">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:69" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1</v>
+      </c>
+      <c r="O25" s="7">
+        <v>1</v>
+      </c>
+      <c r="P25" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>1</v>
+      </c>
+      <c r="R25" s="10">
+        <v>1</v>
+      </c>
+      <c r="S25" s="7">
+        <v>1</v>
+      </c>
+      <c r="T25" s="7">
+        <v>1</v>
+      </c>
+      <c r="U25" s="7">
+        <v>1</v>
+      </c>
+      <c r="V25" s="7">
+        <v>1</v>
+      </c>
+      <c r="W25" s="8">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV25" s="23">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AW25" s="38">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AX25" s="40">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY25" s="41">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB25" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF25" s="44">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="BG25" s="45">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="BH25">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM25">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:69" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>1</v>
+      </c>
+      <c r="R26" s="10">
+        <v>1</v>
+      </c>
+      <c r="S26" s="7">
+        <v>1</v>
+      </c>
+      <c r="T26" s="7">
+        <v>1</v>
+      </c>
+      <c r="U26" s="7">
+        <v>1</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW26" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX26" s="23">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AY26" s="38">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="37">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA26" s="30">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB26" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD26" s="32">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="BE26" s="33">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="BF26">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG26" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:69" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="10">
+        <v>1</v>
+      </c>
+      <c r="S27" s="7">
+        <v>1</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW27" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="23">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="BA27" s="38">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="BB27" s="42">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="BC27" s="43">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="BD27">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG27" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP27">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW28" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB28" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG28" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="6">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW29" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB29" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG29" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW30" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB30" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG30" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL30">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM30">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO30">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP30">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW31" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB31" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG31" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP31">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW32" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB32" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG32" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW33" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB33" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG33" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:69" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AW34" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BB34" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BG34" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/画像/1024/特徴点の検出.xlsx
+++ b/画像/1024/特徴点の検出.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研究室\日誌\画像\1024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C25BC9-902D-4669-A324-865B592C61F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCF11AE-6E84-4701-8BF5-B3E2500D5509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F390434C-1379-48A7-8188-CAA40E327FEB}"/>
   </bookViews>
@@ -1698,6 +1698,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12801804777461193"/>
+          <c:y val="1.9594986050112798E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3859,16 +3867,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>34022</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>207202</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>187034</xdr:rowOff>
+      <xdr:rowOff>31170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>54430</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>35993</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>139097</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>242454</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3900,13 +3908,13 @@
       <xdr:col>41</xdr:col>
       <xdr:colOff>207818</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
+      <xdr:rowOff>86589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>228227</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>195322</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>105006</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7017,7 +7025,7 @@
   <dimension ref="D3:BQ34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CI26" sqref="CI26"/>
+      <selection activeCell="BX48" sqref="BX48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
